--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1980" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="196">
   <si>
     <t>模块</t>
   </si>
@@ -139,7 +139,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -148,7 +148,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -157,7 +157,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -213,7 +213,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -222,7 +222,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -231,7 +231,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -242,7 +242,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -251,7 +251,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -268,7 +268,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -277,7 +277,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -288,7 +288,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -297,7 +297,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -314,7 +314,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -323,7 +323,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -403,9 +403,6 @@
     <t>/hy/basic/stuff/getStuff</t>
   </si>
   <si>
-    <t>POST</t>
-  </si>
-  <si>
     <t>添加店员</t>
   </si>
   <si>
@@ -553,18 +550,12 @@
     <t>/hy/basic/serviceSuite/addServiceSuite</t>
   </si>
   <si>
-    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) serviceList(绑定的项目（项目号用逗号隔开）)  times(次数)</t>
-  </si>
-  <si>
     <t>修改套卡</t>
   </si>
   <si>
     <t>/hy/basic/serviceSuite/updateServiceSuite</t>
   </si>
   <si>
-    <t>recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) serviceList(绑定的项目（项目号用逗号隔开）)  times(次数)</t>
-  </si>
-  <si>
     <t>获取该账户的套卡</t>
   </si>
   <si>
@@ -658,80 +649,91 @@
     <t>获取系列</t>
   </si>
   <si>
+    <t>recordId（品牌id）</t>
+  </si>
+  <si>
+    <t>添加产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/addProduct</t>
+  </si>
+  <si>
+    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>修改产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updateProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>删除产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/deleteProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）</t>
+  </si>
+  <si>
+    <t>获取产品详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/queryProductData</t>
+  </si>
+  <si>
+    <t>添加班次</t>
+  </si>
+  <si>
+    <t>修改班次</t>
+  </si>
+  <si>
+    <t>公共上传图片</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/uploadPic</t>
+  </si>
+  <si>
+    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+  </si>
+  <si>
+    <t>公共修改图片</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updatePic</t>
+  </si>
+  <si>
+    <t>file（图片）picName(图片名)</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/hy/basic/product/querySonProductSeries</t>
-  </si>
-  <si>
-    <t>recordId（品牌id）</t>
-  </si>
-  <si>
-    <t>添加产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/addProduct</t>
-  </si>
-  <si>
-    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>修改产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updateProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>删除产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/deleteProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）</t>
-  </si>
-  <si>
-    <t>获取产品详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/queryProductData</t>
-  </si>
-  <si>
-    <t>添加班次</t>
-  </si>
-  <si>
-    <t>修改班次</t>
-  </si>
-  <si>
-    <t>公共上传图片</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/uploadPic</t>
-  </si>
-  <si>
-    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-  </si>
-  <si>
-    <t>公共修改图片</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updatePic</t>
-  </si>
-  <si>
-    <t>file（图片）picName(图片名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -740,351 +742,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1092,251 +769,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1351,63 +786,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1663,25 +1046,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="75.0714285714286" customWidth="1"/>
-    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="255.642857142857" customWidth="1"/>
+    <col min="3" max="3" width="75.125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="255.625" customWidth="1"/>
     <col min="6" max="6" width="20.75" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="17.875" customWidth="1"/>
@@ -1713,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1721,17 +1104,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:8">
       <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1748,7 +1131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1776,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1804,7 +1187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:8">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -1829,17 +1212,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:8">
       <c r="B13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:8">
       <c r="B14" t="s">
         <v>35</v>
       </c>
@@ -1853,12 +1236,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="2:7">
+    <row r="16" spans="1:8">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1923,7 +1306,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="2:7">
+    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -1940,7 +1323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" ht="21" customHeight="1" spans="2:7">
+    <row r="21" spans="2:7" ht="21" customHeight="1">
       <c r="B21" t="s">
         <v>55</v>
       </c>
@@ -1957,7 +1340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" ht="21" customHeight="1" spans="2:7">
+    <row r="22" spans="2:7" ht="21" customHeight="1">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -1974,7 +1357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="2:7">
+    <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -1991,7 +1374,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="2:7">
+    <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B24" t="s">
         <v>66</v>
       </c>
@@ -2008,7 +1391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="2:7">
+    <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B25" t="s">
         <v>69</v>
       </c>
@@ -2019,7 +1402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" ht="20.1" customHeight="1" spans="2:7">
+    <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B26" t="s">
         <v>70</v>
       </c>
@@ -2030,7 +1413,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="2:7">
+    <row r="27" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B27" t="s">
         <v>71</v>
       </c>
@@ -2038,7 +1421,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="2:7">
+    <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -2055,37 +1438,37 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" ht="20.1" customHeight="1" spans="2:2">
+    <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="2:2">
+    <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" ht="20.1" customHeight="1" spans="2:2">
+    <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="2:2">
+    <row r="32" spans="2:7" ht="20.100000000000001" customHeight="1">
       <c r="B32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="2:2">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="2:2">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" ht="21.95" customHeight="1" spans="1:2">
+    <row r="35" spans="1:8" ht="21.95" customHeight="1">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2093,22 +1476,22 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:8">
       <c r="B36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:8">
       <c r="B37" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:8">
       <c r="B38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>86</v>
       </c>
@@ -2119,491 +1502,596 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>191</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="1:8">
       <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
         <v>91</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
         <v>92</v>
       </c>
-      <c r="D41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>93</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-      <c r="H41">
-        <v>2.28</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>95</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" t="s">
         <v>96</v>
       </c>
-      <c r="E42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>98</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s">
         <v>99</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" t="s">
         <v>100</v>
       </c>
-      <c r="G43" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>191</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="E44" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
         <v>104</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="G45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s">
         <v>106</v>
       </c>
-      <c r="C46" t="s">
+      <c r="G46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
         <v>107</v>
       </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
         <v>108</v>
       </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>111</v>
-      </c>
-      <c r="G48" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" t="s">
         <v>113</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" t="s">
         <v>114</v>
       </c>
-      <c r="D49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" t="s">
-        <v>115</v>
-      </c>
       <c r="G49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
         <v>116</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
         <v>117</v>
       </c>
-      <c r="E50" t="s">
-        <v>118</v>
-      </c>
       <c r="G50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
         <v>119</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E51" t="s">
         <v>120</v>
       </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
       <c r="G51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
         <v>122</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
         <v>123</v>
       </c>
-      <c r="E52" t="s">
-        <v>124</v>
-      </c>
       <c r="G52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" t="s">
         <v>125</v>
       </c>
-      <c r="C53" t="s">
-        <v>126</v>
+      <c r="D53" t="s">
+        <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
         <v>127</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" t="s">
         <v>128</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>129</v>
-      </c>
-      <c r="G54" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
         <v>131</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" t="s">
         <v>132</v>
       </c>
-      <c r="E55" t="s">
-        <v>133</v>
-      </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
         <v>134</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
+      <c r="E56" t="s">
         <v>135</v>
       </c>
-      <c r="E56" t="s">
-        <v>136</v>
-      </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
         <v>137</v>
       </c>
-      <c r="C57" t="s">
-        <v>138</v>
+      <c r="D57" t="s">
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="G58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" t="s">
         <v>145</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" t="s">
         <v>149</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D62" t="s">
+        <v>192</v>
+      </c>
+      <c r="E62" t="s">
         <v>150</v>
       </c>
-      <c r="E61" t="s">
-        <v>147</v>
-      </c>
-      <c r="G61" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" t="s">
         <v>151</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>152</v>
       </c>
-      <c r="E62" t="s">
+      <c r="D63" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
-      <c r="B63" t="s">
+    <row r="64" spans="2:7">
+      <c r="B64" t="s">
         <v>154</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>155</v>
       </c>
-      <c r="E63" t="s">
+      <c r="D64" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-      <c r="E64" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>158</v>
+      </c>
+      <c r="D65" t="s">
+        <v>191</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>166</v>
+        <v>163</v>
+      </c>
+      <c r="D67" t="s">
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" t="s">
         <v>168</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>169</v>
       </c>
-      <c r="E68" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" t="s">
-        <v>172</v>
+      <c r="D69" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>193</v>
+      </c>
+      <c r="D70" t="s">
+        <v>191</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="D71" t="s">
+        <v>191</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="D72" t="s">
+        <v>191</v>
       </c>
       <c r="E72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="D73" t="s">
+        <v>191</v>
       </c>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
       </c>
       <c r="E74" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>192</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
         <v>192</v>
       </c>
-      <c r="C78" t="s">
-        <v>193</v>
-      </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="203">
   <si>
     <t>模块</t>
   </si>
@@ -726,6 +726,34 @@
   </si>
   <si>
     <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/schedule/updateStuffSchedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(门店id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1054,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1211,11 +1239,23 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
         <v>33</v>
       </c>
+      <c r="C12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
@@ -1239,6 +1279,15 @@
     <row r="15" spans="1:8">
       <c r="B15" t="s">
         <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:8">

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="210">
   <si>
     <t>模块</t>
   </si>
@@ -409,9 +409,6 @@
     <t>查询美容院信息</t>
   </si>
   <si>
-    <t>/hy/basic/my/getSalonData</t>
-  </si>
-  <si>
     <t>recordId(美容院ID)</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>获取门店信息</t>
   </si>
   <si>
-    <t>/hy/basic/salon/getStoreDetails</t>
-  </si>
-  <si>
     <t>recordId(门店ID)</t>
   </si>
   <si>
@@ -694,16 +688,10 @@
     <t>公共上传图片</t>
   </si>
   <si>
-    <t>/hy/basic/product/uploadPic</t>
-  </si>
-  <si>
     <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
   </si>
   <si>
     <t>公共修改图片</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updatePic</t>
   </si>
   <si>
     <t>file（图片）picName(图片名)</t>
@@ -754,6 +742,50 @@
   </si>
   <si>
     <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreDetails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(美容院ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getSalonData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/getStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuff对象实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/updateStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/updatePic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1080,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1240,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1248,13 +1280,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1281,13 +1313,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1551,7 +1583,7 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -1559,584 +1591,606 @@
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>89</v>
+        <v>204</v>
+      </c>
+      <c r="C40" t="s">
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
-      </c>
-      <c r="G40" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="E41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41">
-        <v>2.2799999999999998</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
-      </c>
-      <c r="E42" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="B43" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>200</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="H43">
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="B46" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>187</v>
+      </c>
+      <c r="E46" t="s">
+        <v>97</v>
+      </c>
+      <c r="G46" t="s">
         <v>95</v>
-      </c>
-      <c r="D46" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="B47" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G48" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:7">
       <c r="B49" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="G49" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="2:7">
       <c r="B50" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G50" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E51" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="2:7">
       <c r="B52" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="G57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s">
         <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="G60" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>144</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="G62" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>142</v>
+      </c>
+      <c r="G63" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>191</v>
-      </c>
-      <c r="E71" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>183</v>
+        <v>176</v>
+      </c>
+      <c r="C75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="C77" t="s">
-        <v>186</v>
-      </c>
-      <c r="D77" t="s">
-        <v>192</v>
-      </c>
-      <c r="E77" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
         <v>188</v>
       </c>
-      <c r="C78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" t="s">
-        <v>190</v>
+      <c r="E79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
+      </c>
+      <c r="E80" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="206">
   <si>
     <t>模块</t>
   </si>
@@ -754,6 +754,18 @@
   </si>
   <si>
     <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1095,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1261,6 +1273,15 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="213">
   <si>
     <t>模块</t>
   </si>
@@ -786,6 +786,18 @@
   </si>
   <si>
     <t>/hy/basic/pictures/updatePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1293,6 +1305,15 @@
       <c r="B13" t="s">
         <v>34</v>
       </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="B14" t="s">

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
   <si>
     <t>模块</t>
   </si>
@@ -798,6 +798,22 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/shift/saveShift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1126,8 +1142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -2180,10 +2196,28 @@
       <c r="B77" t="s">
         <v>181</v>
       </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
         <v>182</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="2:5">

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="225">
   <si>
     <t>模块</t>
   </si>
@@ -685,135 +685,169 @@
     <t>修改班次</t>
   </si>
   <si>
+    <t>公共修改图片</t>
+  </si>
+  <si>
+    <t>file（图片）picName(图片名)</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/product/querySonProductSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/schedule/updateStuffSchedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(门店id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreDetails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(美容院ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getSalonData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/getStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuff对象实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/updateStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/updatePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/shift/saveShift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadHeadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>公共上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共上传与修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-  </si>
-  <si>
-    <t>公共修改图片</t>
-  </si>
-  <si>
-    <t>file（图片）picName(图片名)</t>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/product/querySonProductSeries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/schedule/updateStuffSchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排班信息列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(门店id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getStoreDetails</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(美容院ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getSalonData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/getStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stuff对象实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/updateStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/uploadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/updatePic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/shift/saveShift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/notice/addNotice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salonId(美容院号)title（标题）content（公告内容）bindingJson（绑定json）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1140,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1300,7 +1334,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1308,13 +1342,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" t="s">
         <v>195</v>
       </c>
-      <c r="D12" t="s">
-        <v>197</v>
-      </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1322,13 +1356,13 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" t="s">
         <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1350,13 +1384,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" t="s">
         <v>192</v>
       </c>
-      <c r="D15" t="s">
-        <v>194</v>
-      </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1620,7 +1654,7 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -1628,27 +1662,27 @@
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" t="s">
         <v>203</v>
       </c>
-      <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" t="s">
-        <v>205</v>
-      </c>
       <c r="E41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1656,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -1667,13 +1701,13 @@
         <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -1687,7 +1721,7 @@
         <v>93</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
         <v>91</v>
@@ -1701,10 +1735,10 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
@@ -1721,7 +1755,7 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
@@ -1738,7 +1772,7 @@
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -1755,7 +1789,7 @@
         <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E48" t="s">
         <v>104</v>
@@ -1772,7 +1806,7 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -1789,7 +1823,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E50" t="s">
         <v>108</v>
@@ -1806,7 +1840,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
@@ -1823,7 +1857,7 @@
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E52" t="s">
         <v>115</v>
@@ -1840,7 +1874,7 @@
         <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E53" t="s">
         <v>118</v>
@@ -1857,7 +1891,7 @@
         <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E54" t="s">
         <v>121</v>
@@ -1874,7 +1908,7 @@
         <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
@@ -1888,7 +1922,7 @@
         <v>125</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
         <v>126</v>
@@ -1905,7 +1939,7 @@
         <v>129</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E57" t="s">
         <v>130</v>
@@ -1922,7 +1956,7 @@
         <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E58" t="s">
         <v>133</v>
@@ -1939,10 +1973,10 @@
         <v>135</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G59" t="s">
         <v>127</v>
@@ -1956,10 +1990,10 @@
         <v>137</v>
       </c>
       <c r="D60" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" t="s">
         <v>188</v>
-      </c>
-      <c r="E60" t="s">
-        <v>190</v>
       </c>
       <c r="G60" t="s">
         <v>127</v>
@@ -1973,7 +2007,7 @@
         <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G61" t="s">
         <v>127</v>
@@ -1987,7 +2021,7 @@
         <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E62" t="s">
         <v>142</v>
@@ -2021,7 +2055,7 @@
         <v>147</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
         <v>148</v>
@@ -2035,7 +2069,7 @@
         <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E65" t="s">
         <v>151</v>
@@ -2049,7 +2083,7 @@
         <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
         <v>154</v>
@@ -2063,7 +2097,7 @@
         <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E67" t="s">
         <v>157</v>
@@ -2077,7 +2111,7 @@
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
         <v>157</v>
@@ -2091,7 +2125,7 @@
         <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E69" t="s">
         <v>162</v>
@@ -2105,7 +2139,7 @@
         <v>164</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E70" t="s">
         <v>165</v>
@@ -2119,7 +2153,7 @@
         <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2127,10 +2161,10 @@
         <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E72" t="s">
         <v>169</v>
@@ -2144,7 +2178,7 @@
         <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E73" t="s">
         <v>172</v>
@@ -2158,7 +2192,7 @@
         <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
         <v>175</v>
@@ -2172,7 +2206,7 @@
         <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E75" t="s">
         <v>178</v>
@@ -2186,7 +2220,7 @@
         <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E76" t="s">
         <v>178</v>
@@ -2197,13 +2231,13 @@
         <v>181</v>
       </c>
       <c r="C77" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" t="s">
         <v>213</v>
-      </c>
-      <c r="D77" t="s">
-        <v>214</v>
-      </c>
-      <c r="E77" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -2211,41 +2245,69 @@
         <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" t="s">
         <v>214</v>
-      </c>
-      <c r="E78" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
   <si>
     <t>模块</t>
   </si>
@@ -505,229 +505,386 @@
     <t>获取一级类别</t>
   </si>
   <si>
+    <t>获取该一级类别下的二级类别</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSeries/querySonServiceSeries</t>
+  </si>
+  <si>
+    <t>recordId（一级类别Id）</t>
+  </si>
+  <si>
+    <t>2019-3.4</t>
+  </si>
+  <si>
+    <t>新增服务项目（次卡）</t>
+  </si>
+  <si>
+    <t>/hy/basic/service/addService</t>
+  </si>
+  <si>
+    <t>serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
+  </si>
+  <si>
+    <t>修改服务项目</t>
+  </si>
+  <si>
+    <t>/hy/basic/service/updateService</t>
+  </si>
+  <si>
+    <t>recordId（次卡Id）serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
+  </si>
+  <si>
+    <t>添加套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/addServiceSuite</t>
+  </si>
+  <si>
+    <t>修改套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/updateServiceSuite</t>
+  </si>
+  <si>
+    <t>获取该账户的套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/queryServiceSuite</t>
+  </si>
+  <si>
+    <t>获取套卡详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/queryServiceSuiteData</t>
+  </si>
+  <si>
+    <t>recordId（套卡Id）</t>
+  </si>
+  <si>
+    <t>2019-3.5</t>
+  </si>
+  <si>
+    <t>删除套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/deleteServiceSuite</t>
+  </si>
+  <si>
+    <t>添加充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/addVipSuite</t>
+  </si>
+  <si>
+    <t>suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
+  </si>
+  <si>
+    <t>修改充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/updateVipSuite</t>
+  </si>
+  <si>
+    <t>recordId（充值卡Id）suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
+  </si>
+  <si>
+    <t>获取充值卡绑定项目详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/queryVipSuite</t>
+  </si>
+  <si>
+    <t>recordId（充值卡id）recordType(折扣类型)</t>
+  </si>
+  <si>
+    <t>查看该充值卡详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/queryVipSuiteData</t>
+  </si>
+  <si>
+    <t>recordId（充值卡id）</t>
+  </si>
+  <si>
+    <t>删除充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/deleteVipSuite</t>
+  </si>
+  <si>
+    <t>新增品牌</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/addProductSeries</t>
+  </si>
+  <si>
+    <t>seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
+  </si>
+  <si>
+    <t>新增/删除品牌的系列</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updateProductSeries</t>
+  </si>
+  <si>
+    <t>recordId（品牌id）seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
+  </si>
+  <si>
+    <t>获取品牌</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/queryProductSeries</t>
+  </si>
+  <si>
+    <t>获取系列</t>
+  </si>
+  <si>
+    <t>recordId（品牌id）</t>
+  </si>
+  <si>
+    <t>添加产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/addProduct</t>
+  </si>
+  <si>
+    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>修改产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updateProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>删除产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/deleteProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）</t>
+  </si>
+  <si>
+    <t>获取产品详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/queryProductData</t>
+  </si>
+  <si>
+    <t>添加班次</t>
+  </si>
+  <si>
+    <t>修改班次</t>
+  </si>
+  <si>
+    <t>公共修改图片</t>
+  </si>
+  <si>
+    <t>file（图片）picName(图片名)</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/product/querySonProductSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/schedule/updateStuffSchedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(门店id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreDetails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(美容院ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getSalonData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/getStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuff对象实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/updateStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/updatePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/shift/saveShift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadHeadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共上传与修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salonId(美容院号)title（标题）content（公告内容）bindingJson（绑定json）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以一级类别获取二级类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/hy/basic/serviceSeries/queryServiceSeries</t>
-  </si>
-  <si>
-    <t>获取该一级类别下的二级类别</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSeries/querySonServiceSeries</t>
-  </si>
-  <si>
-    <t>recordId（一级类别Id）</t>
-  </si>
-  <si>
-    <t>2019-3.4</t>
-  </si>
-  <si>
-    <t>新增服务项目（次卡）</t>
-  </si>
-  <si>
-    <t>/hy/basic/service/addService</t>
-  </si>
-  <si>
-    <t>serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
-  </si>
-  <si>
-    <t>修改服务项目</t>
-  </si>
-  <si>
-    <t>/hy/basic/service/updateService</t>
-  </si>
-  <si>
-    <t>recordId（次卡Id）serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
-  </si>
-  <si>
-    <t>添加套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/addServiceSuite</t>
-  </si>
-  <si>
-    <t>修改套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/updateServiceSuite</t>
-  </si>
-  <si>
-    <t>获取该账户的套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/queryServiceSuite</t>
-  </si>
-  <si>
-    <t>获取套卡详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/queryServiceSuiteData</t>
-  </si>
-  <si>
-    <t>recordId（套卡Id）</t>
-  </si>
-  <si>
-    <t>2019-3.5</t>
-  </si>
-  <si>
-    <t>删除套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/deleteServiceSuite</t>
-  </si>
-  <si>
-    <t>添加充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/addVipSuite</t>
-  </si>
-  <si>
-    <t>suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
-  </si>
-  <si>
-    <t>修改充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/updateVipSuite</t>
-  </si>
-  <si>
-    <t>recordId（充值卡Id）suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
-  </si>
-  <si>
-    <t>获取充值卡绑定项目详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/queryVipSuite</t>
-  </si>
-  <si>
-    <t>recordId（充值卡id）recordType(折扣类型)</t>
-  </si>
-  <si>
-    <t>查看该充值卡详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/queryVipSuiteData</t>
-  </si>
-  <si>
-    <t>recordId（充值卡id）</t>
-  </si>
-  <si>
-    <t>删除充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/deleteVipSuite</t>
-  </si>
-  <si>
-    <t>新增品牌</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/addProductSeries</t>
-  </si>
-  <si>
-    <t>seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
-  </si>
-  <si>
-    <t>新增/删除品牌的系列</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updateProductSeries</t>
-  </si>
-  <si>
-    <t>recordId（品牌id）seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
-  </si>
-  <si>
-    <t>获取品牌</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/queryProductSeries</t>
-  </si>
-  <si>
-    <t>获取系列</t>
-  </si>
-  <si>
-    <t>recordId（品牌id）</t>
-  </si>
-  <si>
-    <t>添加产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/addProduct</t>
-  </si>
-  <si>
-    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>修改产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updateProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>删除产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/deleteProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）</t>
-  </si>
-  <si>
-    <t>获取产品详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/queryProductData</t>
-  </si>
-  <si>
-    <t>添加班次</t>
-  </si>
-  <si>
-    <t>修改班次</t>
-  </si>
-  <si>
-    <t>公共修改图片</t>
-  </si>
-  <si>
-    <t>file（图片）picName(图片名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSeries/queryAllServiceSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/product/querySonProductSeries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/schedule/updateStuffSchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排班信息列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(门店id)</t>
+    <t>公共获取图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/getPictures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店员（根据字母排序）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/notice/addNotice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/notice/queryStuffForLetter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -735,119 +892,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getStoreDetails</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(美容院ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getSalonData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/getStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stuff对象实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/updateStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/uploadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/updatePic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/shift/saveShift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/uploadHeadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共上传图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共上传与修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布公告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/notice/addNotice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salonId(美容院号)title（标题）content（公告内容）bindingJson（绑定json）</t>
+    <t>recordId（美容院号）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1334,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1342,13 +1387,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
         <v>193</v>
-      </c>
-      <c r="D12" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1356,13 +1401,13 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
         <v>208</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>209</v>
-      </c>
-      <c r="E13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1384,13 +1429,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" t="s">
         <v>190</v>
-      </c>
-      <c r="D15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1654,7 +1699,7 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -1662,27 +1707,27 @@
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
+        <v>201</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D40" t="s">
         <v>202</v>
-      </c>
-      <c r="C40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" t="s">
         <v>203</v>
-      </c>
-      <c r="E41" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1690,7 +1735,7 @@
         <v>89</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -1701,13 +1746,13 @@
         <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -1720,8 +1765,11 @@
       <c r="B44" t="s">
         <v>93</v>
       </c>
+      <c r="C44" t="s">
+        <v>222</v>
+      </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
         <v>91</v>
@@ -1735,10 +1783,10 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
@@ -1755,7 +1803,7 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
@@ -1772,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -1789,7 +1837,7 @@
         <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
         <v>104</v>
@@ -1806,7 +1854,7 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -1823,7 +1871,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E50" t="s">
         <v>108</v>
@@ -1840,7 +1888,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
@@ -1857,7 +1905,7 @@
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
         <v>115</v>
@@ -1874,7 +1922,7 @@
         <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E53" t="s">
         <v>118</v>
@@ -1891,7 +1939,7 @@
         <v>120</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
         <v>121</v>
@@ -1905,10 +1953,10 @@
         <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
@@ -1916,398 +1964,437 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="G59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E60" t="s">
         <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D61" t="s">
         <v>185</v>
       </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="G62" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="E63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G63" t="s">
         <v>142</v>
-      </c>
-      <c r="G63" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="G64" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E65" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="B68" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C77" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="B78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C78" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78" t="s">
         <v>211</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>212</v>
-      </c>
-      <c r="E78" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E81" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
+        <v>217</v>
+      </c>
+      <c r="E82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" t="s">
+        <v>214</v>
+      </c>
+      <c r="D83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" t="s">
         <v>219</v>
       </c>
-      <c r="E82" t="s">
-        <v>224</v>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C84" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
   <si>
     <t>模块</t>
   </si>
@@ -868,10 +868,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -884,15 +880,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId（美容院号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>/hy/basic/notice/queryStuffForLetter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId（美容院号）</t>
+    <t>/hy/basic/stuff/addStuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffName(姓名)  tel（手机号） storeId（所属门店号）  jobLevel（职位 0 院长 1 店长 2 前台 3 顾问 4 美容师）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1221,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1734,8 +1738,14 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
+      <c r="C42" t="s">
+        <v>235</v>
+      </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>236</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -2324,7 +2334,7 @@
         <v>185</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" spans="2:5">
@@ -2338,7 +2348,7 @@
         <v>226</v>
       </c>
       <c r="E81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -2374,7 +2384,7 @@
         <v>220</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
         <v>218</v>
@@ -2385,16 +2395,16 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
+        <v>232</v>
+      </c>
+      <c r="E85" t="s">
         <v>233</v>
-      </c>
-      <c r="D85" t="s">
-        <v>234</v>
-      </c>
-      <c r="E85" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/doc/接口清单.xlsx
+++ b/doc/接口清单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="240">
   <si>
     <t>模块</t>
   </si>
@@ -493,410 +493,426 @@
     <t>recordId（类别Id）</t>
   </si>
   <si>
+    <t>/hy/basic/serviceSeries/updateServiceSeries</t>
+  </si>
+  <si>
+    <t>recordId（类别Id）seriesName(类别名称)parentId（父类Id）recordStatus(状态： 0. 启用   1. 停用)</t>
+  </si>
+  <si>
+    <t>获取该一级类别下的二级类别</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSeries/querySonServiceSeries</t>
+  </si>
+  <si>
+    <t>2019-3.4</t>
+  </si>
+  <si>
+    <t>新增服务项目（次卡）</t>
+  </si>
+  <si>
+    <t>serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
+  </si>
+  <si>
+    <t>修改服务项目</t>
+  </si>
+  <si>
+    <t>/hy/basic/service/updateService</t>
+  </si>
+  <si>
+    <t>recordId（次卡Id）serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
+  </si>
+  <si>
+    <t>添加套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/addServiceSuite</t>
+  </si>
+  <si>
+    <t>修改套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/updateServiceSuite</t>
+  </si>
+  <si>
+    <t>获取该账户的套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/queryServiceSuite</t>
+  </si>
+  <si>
+    <t>获取套卡详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/queryServiceSuiteData</t>
+  </si>
+  <si>
+    <t>recordId（套卡Id）</t>
+  </si>
+  <si>
+    <t>2019-3.5</t>
+  </si>
+  <si>
+    <t>删除套卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSuite/deleteServiceSuite</t>
+  </si>
+  <si>
+    <t>添加充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/addVipSuite</t>
+  </si>
+  <si>
+    <t>suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
+  </si>
+  <si>
+    <t>修改充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/updateVipSuite</t>
+  </si>
+  <si>
+    <t>recordId（充值卡Id）suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
+  </si>
+  <si>
+    <t>获取充值卡绑定项目详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/queryVipSuite</t>
+  </si>
+  <si>
+    <t>recordId（充值卡id）recordType(折扣类型)</t>
+  </si>
+  <si>
+    <t>查看该充值卡详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/queryVipSuiteData</t>
+  </si>
+  <si>
+    <t>recordId（充值卡id）</t>
+  </si>
+  <si>
+    <t>删除充值卡</t>
+  </si>
+  <si>
+    <t>/hy/basic/vipSuite/deleteVipSuite</t>
+  </si>
+  <si>
+    <t>新增品牌</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/addProductSeries</t>
+  </si>
+  <si>
+    <t>seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
+  </si>
+  <si>
+    <t>新增/删除品牌的系列</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updateProductSeries</t>
+  </si>
+  <si>
+    <t>recordId（品牌id）seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
+  </si>
+  <si>
+    <t>获取品牌</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/queryProductSeries</t>
+  </si>
+  <si>
+    <t>获取系列</t>
+  </si>
+  <si>
+    <t>recordId（品牌id）</t>
+  </si>
+  <si>
+    <t>添加产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/addProduct</t>
+  </si>
+  <si>
+    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>修改产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/updateProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
+  </si>
+  <si>
+    <t>删除产品</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/deleteProduct</t>
+  </si>
+  <si>
+    <t>recordId（产品Id）</t>
+  </si>
+  <si>
+    <t>获取产品详情</t>
+  </si>
+  <si>
+    <t>/hy/basic/product/queryProductData</t>
+  </si>
+  <si>
+    <t>添加班次</t>
+  </si>
+  <si>
+    <t>修改班次</t>
+  </si>
+  <si>
+    <t>公共修改图片</t>
+  </si>
+  <si>
+    <t>file（图片）picName(图片名)</t>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/product/querySonProductSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/schedule/updateStuffSchedule</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班信息列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(门店id)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreDetails</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId(美容院ID)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getSalonData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/getStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店长个人资料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stuff对象实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/updateStuffData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/updatePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/workSummary/getWorkSummary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/shift/saveShift</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/uploadHeadPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共上传与修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布公告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>salonId(美容院号)title（标题）content（公告内容）bindingJson（绑定json）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/salon/getStoreList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以一级类别获取二级类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSeries/queryServiceSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/serviceSeries/queryAllServiceSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共获取图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/pictures/getPictures</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取店员（根据字母排序）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/notice/addNotice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>recordId（美容院号）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/notice/queryStuffForLetter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/stuff/addStuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuffName(姓名)  tel（手机号） storeId（所属门店号）  jobLevel（职位 0 院长 1 店长 2 前台 3 顾问 4 美容师）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/service/addService</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>修改项目类别</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSeries/updateServiceSeries</t>
-  </si>
-  <si>
-    <t>recordId（类别Id）seriesName(类别名称)parentId（父类Id）recordStatus(状态： 0. 启用   1. 停用)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>获取一级类别</t>
-  </si>
-  <si>
-    <t>获取该一级类别下的二级类别</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSeries/querySonServiceSeries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hy/basic/service/queryServiceData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取项目详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>recordId（一级类别Id）</t>
-  </si>
-  <si>
-    <t>2019-3.4</t>
-  </si>
-  <si>
-    <t>新增服务项目（次卡）</t>
-  </si>
-  <si>
-    <t>/hy/basic/service/addService</t>
-  </si>
-  <si>
-    <t>serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
-  </si>
-  <si>
-    <t>修改服务项目</t>
-  </si>
-  <si>
-    <t>/hy/basic/service/updateService</t>
-  </si>
-  <si>
-    <t>recordId（次卡Id）serviceName(项目名称)serviceSeriesId （项目类别）cardType(卡类别)recordStatus(项目状态)expiredTime(有效期)periodPerTime（单次时长）pricePerTime（单次价格）priceMarket（市场价格）price（办卡价格）returnVisit（回访天数）timeTotal（包含次数）description（简介）</t>
-  </si>
-  <si>
-    <t>添加套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/addServiceSuite</t>
-  </si>
-  <si>
-    <t>修改套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/updateServiceSuite</t>
-  </si>
-  <si>
-    <t>获取该账户的套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/queryServiceSuite</t>
-  </si>
-  <si>
-    <t>获取套卡详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/queryServiceSuiteData</t>
-  </si>
-  <si>
-    <t>recordId（套卡Id）</t>
-  </si>
-  <si>
-    <t>2019-3.5</t>
-  </si>
-  <si>
-    <t>删除套卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSuite/deleteServiceSuite</t>
-  </si>
-  <si>
-    <t>添加充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/addVipSuite</t>
-  </si>
-  <si>
-    <t>suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
-  </si>
-  <si>
-    <t>修改充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/updateVipSuite</t>
-  </si>
-  <si>
-    <t>recordId（充值卡Id）suiteName（充值卡名称）   price（面额）  vipSuiteStatus（记录状态：0.启用   1.停用）  description（介绍）  bindingJson（绑定json）</t>
-  </si>
-  <si>
-    <t>获取充值卡绑定项目详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/queryVipSuite</t>
-  </si>
-  <si>
-    <t>recordId（充值卡id）recordType(折扣类型)</t>
-  </si>
-  <si>
-    <t>查看该充值卡详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/queryVipSuiteData</t>
-  </si>
-  <si>
-    <t>recordId（充值卡id）</t>
-  </si>
-  <si>
-    <t>删除充值卡</t>
-  </si>
-  <si>
-    <t>/hy/basic/vipSuite/deleteVipSuite</t>
-  </si>
-  <si>
-    <t>新增品牌</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/addProductSeries</t>
-  </si>
-  <si>
-    <t>seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
-  </si>
-  <si>
-    <t>新增/删除品牌的系列</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updateProductSeries</t>
-  </si>
-  <si>
-    <t>recordId（品牌id）seriesName（品牌名）parentId（上级Id）recordStatus(记录状态:0.启用  1.停用)</t>
-  </si>
-  <si>
-    <t>获取品牌</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/queryProductSeries</t>
-  </si>
-  <si>
-    <t>获取系列</t>
-  </si>
-  <si>
-    <t>recordId（品牌id）</t>
-  </si>
-  <si>
-    <t>添加产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/addProduct</t>
-  </si>
-  <si>
-    <t>salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>修改产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/updateProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）salonId(美容院Id)&amp;productName=（产品名字）&amp;productClass=（产品类型: 0.客装   1.院装   2.易耗品）&amp;productSeriesId=(品牌Id)&amp;priceMarket（市场价格）&amp;price（优惠价格）&amp;productCode（产品编码）&amp;specification=（规格:就是数量，比如3kg/瓶）&amp;specificationUnit=（规格单位：0. g(克)   1.Kg(千克)  2.ml(毫升)  3.L(升)）&amp;productUnitId=（单位：瓶/袋/包等）&amp;barCode=（二维码/条形码）&amp;shelfLife=（保质期(月)）&amp;dayOfPreWarning=（产品有效期预警（天））&amp;stockOfPreWarning=（库存预警数量）&amp;recordStatus=（记录状态：0.启用   1. 停用）&amp;description=（简介）</t>
-  </si>
-  <si>
-    <t>删除产品</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/deleteProduct</t>
-  </si>
-  <si>
-    <t>recordId（产品Id）</t>
-  </si>
-  <si>
-    <t>获取产品详情</t>
-  </si>
-  <si>
-    <t>/hy/basic/product/queryProductData</t>
-  </si>
-  <si>
-    <t>添加班次</t>
-  </si>
-  <si>
-    <t>修改班次</t>
-  </si>
-  <si>
-    <t>公共修改图片</t>
-  </si>
-  <si>
-    <t>file（图片）picName(图片名)</t>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/product/querySonProductSeries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">recordId（套卡Id）suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>suiteName(套卡名称)priceMarket(市场价格)  price(优惠价格)  timeCreate(建档时间)  timeExpired(失效日期：如果为null，则表示无期限)   recordStatus(套卡状态：0 正常   1.停用     2.失效（即已过了有效期）) description(简介) binding(绑定json（json格式和我拿）)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/schedule/updateStuffSchedule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>排班信息列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummaryBySalonId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(门店id)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getStoreDetails</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId(美容院ID)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getSalonData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/getStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取店长个人资料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stuff对象实体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/updateStuffData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/uploadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/updatePic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/workSummary/getWorkSummary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/shift/saveShift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>storeId 门店id shiftType 班次  timeStart timeEnd   (json数据 集合)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/uploadHeadPic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共上传图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共上传与修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file（图片）masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布公告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>salonId(美容院号)title（标题）content（公告内容）bindingJson（绑定json）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/salon/getStoreList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以一级类别获取二级类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSeries/queryServiceSeries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/serviceSeries/queryAllServiceSeries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共获取图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/pictures/getPictures</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>masterDataId(主记录编号)  recordType（记录类型: 0.美容院（门店）  1. 员工    2. 项目/卡   3.套卡   4.充值卡  5.产品    6.会员/顾客    7. 护理日志）  picType（照片类型: 0.普通照片   1.营业执照（1张)    2.身份证（要有2张，正反面各1张）  3.开户许可(1张)）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取店员（根据字母排序）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/notice/addNotice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>recordId（美容院号）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/notice/queryStuffForLetter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hy/basic/stuff/addStuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>stuffName(姓名)  tel（手机号） storeId（所属门店号）  jobLevel（职位 0 院长 1 店长 2 前台 3 顾问 4 美容师）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1223,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -1383,7 +1399,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1391,13 +1407,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1405,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1433,13 +1449,13 @@
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1703,7 +1719,7 @@
         <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -1711,27 +1727,27 @@
     </row>
     <row r="40" spans="1:8">
       <c r="B40" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" t="s">
         <v>200</v>
       </c>
-      <c r="C41" t="s">
-        <v>204</v>
-      </c>
       <c r="D41" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1739,13 +1755,13 @@
         <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -1756,13 +1772,13 @@
         <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G43" t="s">
         <v>92</v>
@@ -1776,10 +1792,10 @@
         <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E44" t="s">
         <v>91</v>
@@ -1793,10 +1809,10 @@
         <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
         <v>97</v>
@@ -1813,7 +1829,7 @@
         <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
         <v>97</v>
@@ -1830,7 +1846,7 @@
         <v>101</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E47" t="s">
         <v>102</v>
@@ -1847,7 +1863,7 @@
         <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
         <v>104</v>
@@ -1864,7 +1880,7 @@
         <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
         <v>102</v>
@@ -1881,7 +1897,7 @@
         <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E50" t="s">
         <v>108</v>
@@ -1898,7 +1914,7 @@
         <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
@@ -1915,7 +1931,7 @@
         <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E52" t="s">
         <v>115</v>
@@ -1932,7 +1948,7 @@
         <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
         <v>118</v>
@@ -1943,16 +1959,16 @@
     </row>
     <row r="54" spans="2:7">
       <c r="B54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C54" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="E54" t="s">
         <v>120</v>
-      </c>
-      <c r="D54" t="s">
-        <v>184</v>
-      </c>
-      <c r="E54" t="s">
-        <v>121</v>
       </c>
       <c r="G54" t="s">
         <v>109</v>
@@ -1960,13 +1976,13 @@
     </row>
     <row r="55" spans="2:7">
       <c r="B55" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G55" t="s">
         <v>109</v>
@@ -1974,437 +1990,451 @@
     </row>
     <row r="56" spans="2:7">
       <c r="B56" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="2:7">
       <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>180</v>
+      </c>
+      <c r="E57" t="s">
+        <v>239</v>
+      </c>
+      <c r="G57" t="s">
         <v>123</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" t="s">
-        <v>184</v>
-      </c>
-      <c r="E57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="58" spans="2:7">
       <c r="B58" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" t="s">
-        <v>130</v>
+        <v>237</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
-      </c>
-      <c r="G59" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="2:7">
       <c r="B62" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="E62" t="s">
+        <v>183</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="2:7">
       <c r="B63" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="2:7">
       <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" t="s">
+        <v>180</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s">
         <v>143</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" t="s">
         <v>144</v>
       </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>141</v>
-      </c>
-      <c r="G64" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" t="s">
+      <c r="C67" t="s">
         <v>145</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" t="s">
         <v>146</v>
       </c>
-      <c r="D65" t="s">
-        <v>185</v>
-      </c>
-      <c r="E65" t="s">
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" t="s">
+      <c r="C68" t="s">
         <v>148</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" t="s">
         <v>149</v>
       </c>
-      <c r="D66" t="s">
-        <v>185</v>
-      </c>
-      <c r="E66" t="s">
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" t="s">
+      <c r="C69" t="s">
         <v>151</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" t="s">
         <v>152</v>
       </c>
-      <c r="D67" t="s">
-        <v>184</v>
-      </c>
-      <c r="E67" t="s">
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" t="s">
+      <c r="C70" t="s">
         <v>154</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" t="s">
         <v>155</v>
       </c>
-      <c r="D68" t="s">
-        <v>184</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C71" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" t="s">
+      <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
         <v>157</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" t="s">
         <v>158</v>
       </c>
-      <c r="D69" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" t="s">
+      <c r="C72" t="s">
         <v>159</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" t="s">
         <v>160</v>
       </c>
-      <c r="D70" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" t="s">
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" t="s">
+      <c r="C73" t="s">
         <v>162</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" t="s">
         <v>163</v>
       </c>
-      <c r="D71" t="s">
-        <v>184</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
-      <c r="B72" t="s">
+    <row r="75" spans="2:7">
+      <c r="B75" t="s">
         <v>165</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C75" t="s">
         <v>166</v>
       </c>
-      <c r="D72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" t="s">
+      <c r="D75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" t="s">
         <v>167</v>
       </c>
-      <c r="C73" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" t="s">
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" t="s">
+      <c r="C76" t="s">
         <v>169</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D76" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" t="s">
         <v>170</v>
       </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" t="s">
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" t="s">
+      <c r="C77" t="s">
         <v>172</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D77" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" t="s">
         <v>173</v>
       </c>
-      <c r="D75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" t="s">
+      <c r="C78" t="s">
         <v>175</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D78" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" t="s">
         <v>176</v>
       </c>
-      <c r="D76" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>207</v>
+      </c>
+      <c r="E79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" t="s">
-        <v>178</v>
-      </c>
-      <c r="C77" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" t="s">
-        <v>210</v>
-      </c>
-      <c r="D78" t="s">
-        <v>211</v>
-      </c>
-      <c r="E78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" t="s">
-        <v>211</v>
-      </c>
-      <c r="E79" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" t="s">
-        <v>215</v>
-      </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="84" spans="2:5">
       <c r="B84" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C84" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E84" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" t="s">
+        <v>227</v>
+      </c>
+      <c r="D85" t="s">
+        <v>214</v>
+      </c>
+      <c r="E85" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C86" t="s">
         <v>230</v>
       </c>
-      <c r="C85" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" t="s">
-        <v>232</v>
-      </c>
-      <c r="E85" t="s">
-        <v>233</v>
+      <c r="D86" t="s">
+        <v>228</v>
+      </c>
+      <c r="E86" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
